--- a/biology/Zoologie/Batrachoseps_simatus/Batrachoseps_simatus.xlsx
+++ b/biology/Zoologie/Batrachoseps_simatus/Batrachoseps_simatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps simatus est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps simatus est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Californie aux États-Unis. Elle se rencontre dans le comté de Kern entre 450 et 1 220 m d'altitude dans le sud de la Sierra Nevada[1].
-Les populations rencontrées dans le comté de Tulare, attribuées à cette espèce, sont probablement d'une autre espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Californie aux États-Unis. Elle se rencontre dans le comté de Kern entre 450 et 1 220 m d'altitude dans le sud de la Sierra Nevada.
+Les populations rencontrées dans le comté de Tulare, attribuées à cette espèce, sont probablement d'une autre espèce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps simatus mesure de 90 à 130 mm dont 50 à 75 mm pour la queue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps simatus mesure de 90 à 130 mm dont 50 à 75 mm pour la queue.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brame &amp; Murray, 1968 : Three new slender salamanders (Batrachoseps) with a discussion of relationships and speciation within the genus. Science Bulletin. Natural History Museum of Los Angeles County, no 4, p. 1-35.</t>
         </is>
